--- a/Data/Version_1/Incomplete_Traits_V1/Incomplete_Traits_V1.xlsx
+++ b/Data/Version_1/Incomplete_Traits_V1/Incomplete_Traits_V1.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au572919/Research/I_MegaPast2Future/HerbiTraits/Data/HerbiTraits_Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au572919/Research/I_MegaPast2Future/HerbiTraits/Data/Version_1/Incomplete_Traits_V1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8454977B-A0D1-CE4C-AFF9-0915D9B6F31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A63CD20-783C-2C45-BD3D-DAF5DB6E1B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="4060" windowWidth="28800" windowHeight="17540" xr2:uid="{521CBB47-F052-2148-B667-80EAEE624A1A}"/>
+    <workbookView xWindow="38400" yWindow="4060" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{521CBB47-F052-2148-B667-80EAEE624A1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
-    <sheet name="Data v3" sheetId="5" r:id="rId2"/>
+    <sheet name="Data" sheetId="5" r:id="rId2"/>
     <sheet name="References" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data v3'!$A$1:$S$546</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$S$546</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="1329">
   <si>
     <t>Binomial</t>
   </si>
@@ -4425,9 +4425,6 @@
       </rPr>
       <t>, 128-136, doi:10.1111/j.1439-0310.2006.01298.x.</t>
     </r>
-  </si>
-  <si>
-    <t>https://github.com/MegaPast2Future/HerbiTraits.git</t>
   </si>
 </sst>
 </file>
@@ -4965,10 +4962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BD0AA4-5CC2-A645-AB94-7EEE6238F782}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="60" customHeight="1"/>
@@ -4980,7 +4977,7 @@
     <col min="5" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="70" customHeight="1">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="70" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>684</v>
       </c>
@@ -4994,7 +4991,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="70" customHeight="1">
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="70" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>546</v>
       </c>
@@ -5008,7 +5005,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="70" customHeight="1">
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="70" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>547</v>
       </c>
@@ -5022,7 +5019,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="70" customHeight="1">
+    <row r="4" spans="1:4" s="9" customFormat="1" ht="70" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>548</v>
       </c>
@@ -5036,7 +5033,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="70" customHeight="1">
+    <row r="5" spans="1:4" s="9" customFormat="1" ht="70" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>549</v>
       </c>
@@ -5050,7 +5047,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="70" customHeight="1">
+    <row r="6" spans="1:4" s="9" customFormat="1" ht="70" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>550</v>
       </c>
@@ -5064,7 +5061,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="70" customHeight="1">
+    <row r="7" spans="1:4" ht="70" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>737</v>
       </c>
@@ -5077,11 +5074,8 @@
       <c r="D7" s="28" t="s">
         <v>1320</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="70" customHeight="1">
+    </row>
+    <row r="8" spans="1:4" ht="70" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>738</v>
       </c>
@@ -5095,7 +5089,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="70" customHeight="1">
+    <row r="9" spans="1:4" ht="70" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>739</v>
       </c>
@@ -5109,7 +5103,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="70" customHeight="1">
+    <row r="10" spans="1:4" ht="70" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>722</v>
       </c>
@@ -5123,7 +5117,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="70" customHeight="1">
+    <row r="11" spans="1:4" ht="70" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>717</v>
       </c>
@@ -5137,7 +5131,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="70" customHeight="1">
+    <row r="12" spans="1:4" ht="70" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>1287</v>
       </c>
@@ -5151,7 +5145,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="70" customHeight="1">
+    <row r="13" spans="1:4" ht="70" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>718</v>
       </c>
@@ -5165,7 +5159,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="70" customHeight="1">
+    <row r="14" spans="1:4" ht="70" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>719</v>
       </c>
@@ -5188,7 +5182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF8E102-6A68-0F41-8F7C-6E5986D4A2F8}">
   <dimension ref="A1:S546"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
